--- a/data/Perp/Figure5_SourceData.xlsx
+++ b/data/Perp/Figure5_SourceData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Dropbox\Research\Alaska SeaLife Center 2018-2020\Paper 2\Perpendicual Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\Lapsansky_Zatz_Tobalske_eLife_2020\data\Perp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E424448-3BA6-41A6-ABC8-757FB987CD0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB20D0BA-9701-4CCD-A151-87E2700DCDE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F2CC31DE-8B56-45AA-A15A-ED708A007F82}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F2CC31DE-8B56-45AA-A15A-ED708A007F82}"/>
   </bookViews>
   <sheets>
     <sheet name="allData" sheetId="2" r:id="rId1"/>
@@ -688,7 +688,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1145,7 +1145,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="4">
         <v>95.851052381654583</v>
@@ -1169,7 +1169,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="4">
         <v>90.699691808644261</v>
@@ -2055,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEE43DE-3E55-4769-8797-6AF7865F55BC}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2513,7 +2513,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5">
         <v>95.851052381654583</v>
@@ -2537,7 +2537,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="5">
         <v>90.699691808644261</v>
@@ -3024,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083826BF-2AEC-4C44-8E28-7DCAC91D0F7D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" activeCellId="1" sqref="A16 F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
